--- a/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\zh-CN\Application\Component library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\zh-Hans\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED4A53-EC34-4F22-B274-1565DB295764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8FAB6E-EBF7-48A7-A5AA-3200B11C309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -1718,52 +1718,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233795</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:colOff>205180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E507804-44E2-4FA2-88E8-0F2CE7D2D02A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="4338204" y="155864"/>
+          <a:ext cx="1045112" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2061,7 +2059,7 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Component library/3- Excel-components-library.xlsx
+++ b/CastReporting.Reporting.Core/Templates/zh-Hans/Application/Component library/3- Excel-components-library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\zh-CN\Application\Component library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Temp\RG\Templates\Application\Component library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEED4A53-EC34-4F22-B274-1565DB295764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58523B54-3F57-4D88-B4B9-358076096F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2085" windowWidth="28800" windowHeight="15345" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Information" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="320">
   <si>
     <t>RepGen:TEXT;APPLICATION_NAME</t>
   </si>
@@ -929,9 +929,6 @@
   </si>
   <si>
     <t>* Block Name = QUALITY_TAGS_RULES_EVOLUTION</t>
-  </si>
-  <si>
-    <t>To use this component, the Quality Standards Mapping extension should be installed on the central where the application resides, with minimum version 20190624</t>
   </si>
   <si>
     <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=STIG-V4R8-CAT1</t>
@@ -1319,6 +1316,12 @@
   </si>
   <si>
     <t>ZERO=YES|NO to display the function with 0 AEP (yes by default)</t>
+  </si>
+  <si>
+    <t>* NOVIOLATIONS=true|false to not display rules and TC that do not have violations. By default if option is not present or different from false, it will be true (we display everything)</t>
+  </si>
+  <si>
+    <t>To use this component, the following extensions should be installed : Quality standards mapping extension &gt;= 20240212.0.0-funcrel;CISQ index extension &gt;= 20240201.0.0-funcrel;ISO-5055 index extension &gt;= 20240202;Security Standards extension &gt;= 20240209.0.0-funcrel</t>
   </si>
 </sst>
 </file>
@@ -1718,52 +1721,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>46758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>275318</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:rowOff>406758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1DFC06-7E5D-41AD-B657-FC4BF305BD23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="4364181" y="237258"/>
+          <a:ext cx="1089273" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2061,7 +2062,7 @@
   <dimension ref="B1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2087,7 @@
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -2225,7 +2226,7 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2240,12 +2241,12 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2329,22 +2330,22 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2372,7 +2373,7 @@
     </row>
     <row r="17" spans="2:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2383,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2660,12 +2661,12 @@
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2727,7 @@
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -2739,7 +2740,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECF1C8-5AB3-4063-B1EA-9D9688F82C45}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C1" s="29"/>
     </row>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2787,36 +2788,41 @@
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>173</v>
-      </c>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2841,18 +2847,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2868,7 +2874,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2879,7 +2885,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2899,32 +2905,32 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2942,12 +2948,12 @@
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B187"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
@@ -3267,17 +3273,17 @@
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
@@ -3287,32 +3293,32 @@
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3583,7 @@
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
@@ -3587,12 +3593,12 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3648,7 @@
     </row>
     <row r="158" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
@@ -3652,17 +3658,17 @@
     </row>
     <row r="161" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B161" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
@@ -3672,27 +3678,27 @@
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
@@ -3702,82 +3708,82 @@
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B179" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3802,18 +3808,18 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3823,17 +3829,17 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3851,12 +3857,12 @@
     </row>
     <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -3866,7 +3872,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3890,12 +3896,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3905,17 +3911,17 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3928,12 +3934,12 @@
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3941,7 +3947,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3964,12 +3970,12 @@
   <sheetData>
     <row r="1" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3979,12 +3985,12 @@
     </row>
     <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3997,22 +4003,22 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -4020,7 +4026,7 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4043,33 +4049,33 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4079,17 +4085,17 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -4097,7 +4103,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4121,28 +4127,28 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4152,17 +4158,17 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -4170,7 +4176,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4296,18 +4302,18 @@
     </row>
     <row r="6" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4605,7 +4611,7 @@
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4749,7 +4755,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4775,19 +4781,19 @@
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="24"/>
     </row>
